--- a/data/IT-CF-80025760820/ocds.xlsx
+++ b/data/IT-CF-80025760820/ocds.xlsx
@@ -70137,7 +70137,7 @@
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>17-AFFIDAMENTO DIRETTO EX ART. 5 DELLA LEGGE N.381/91</t>
+          <t>17-AFFIDAMENTO DIRETTO EX ART. 5 DELLA LEGGE 381/91</t>
         </is>
       </c>
       <c r="M137" t="inlineStr">
@@ -70271,7 +70271,7 @@
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>17-AFFIDAMENTO DIRETTO EX ART. 5 DELLA LEGGE N.381/91</t>
+          <t>17-AFFIDAMENTO DIRETTO EX ART. 5 DELLA LEGGE 381/91</t>
         </is>
       </c>
       <c r="M139" t="inlineStr">
@@ -70735,7 +70735,7 @@
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>17-AFFIDAMENTO DIRETTO EX ART. 5 DELLA LEGGE N.381/91</t>
+          <t>17-AFFIDAMENTO DIRETTO EX ART. 5 DELLA LEGGE 381/91</t>
         </is>
       </c>
       <c r="M146" t="inlineStr">
@@ -71112,7 +71112,7 @@
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>03-PROCEDURA NEGOZIATA PREVIA PUBBLICAZIONE</t>
+          <t>03-PROCEDURA NEGOZIATA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M152" t="inlineStr">
@@ -71241,7 +71241,7 @@
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>17-AFFIDAMENTO DIRETTO EX ART. 5 DELLA LEGGE N.381/91</t>
+          <t>17-AFFIDAMENTO DIRETTO EX ART. 5 DELLA LEGGE 381/91</t>
         </is>
       </c>
       <c r="M154" t="inlineStr">
@@ -71365,7 +71365,7 @@
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>03-PROCEDURA NEGOZIATA PREVIA PUBBLICAZIONE</t>
+          <t>03-PROCEDURA NEGOZIATA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M156" t="inlineStr">
@@ -71427,7 +71427,7 @@
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>03-PROCEDURA NEGOZIATA PREVIA PUBBLICAZIONE</t>
+          <t>03-PROCEDURA NEGOZIATA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M157" t="inlineStr">
@@ -71489,7 +71489,7 @@
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>17-AFFIDAMENTO DIRETTO EX ART. 5 DELLA LEGGE N.381/91</t>
+          <t>17-AFFIDAMENTO DIRETTO EX ART. 5 DELLA LEGGE 381/91</t>
         </is>
       </c>
       <c r="M158" t="inlineStr">
@@ -71556,7 +71556,7 @@
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>17-AFFIDAMENTO DIRETTO EX ART. 5 DELLA LEGGE N.381/91</t>
+          <t>17-AFFIDAMENTO DIRETTO EX ART. 5 DELLA LEGGE 381/91</t>
         </is>
       </c>
       <c r="M159" t="inlineStr">
@@ -71623,7 +71623,7 @@
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>17-AFFIDAMENTO DIRETTO EX ART. 5 DELLA LEGGE N.381/91</t>
+          <t>17-AFFIDAMENTO DIRETTO EX ART. 5 DELLA LEGGE 381/91</t>
         </is>
       </c>
       <c r="M160" t="inlineStr">
@@ -71690,7 +71690,7 @@
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>17-AFFIDAMENTO DIRETTO EX ART. 5 DELLA LEGGE N.381/91</t>
+          <t>17-AFFIDAMENTO DIRETTO EX ART. 5 DELLA LEGGE 381/91</t>
         </is>
       </c>
       <c r="M161" t="inlineStr">
@@ -71757,7 +71757,7 @@
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>17-AFFIDAMENTO DIRETTO EX ART. 5 DELLA LEGGE N.381/91</t>
+          <t>17-AFFIDAMENTO DIRETTO EX ART. 5 DELLA LEGGE 381/91</t>
         </is>
       </c>
       <c r="M162" t="inlineStr">
@@ -71824,7 +71824,7 @@
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>17-AFFIDAMENTO DIRETTO EX ART. 5 DELLA LEGGE N.381/91</t>
+          <t>17-AFFIDAMENTO DIRETTO EX ART. 5 DELLA LEGGE 381/91</t>
         </is>
       </c>
       <c r="M163" t="inlineStr">
@@ -71891,7 +71891,7 @@
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>17-AFFIDAMENTO DIRETTO EX ART. 5 DELLA LEGGE N.381/91</t>
+          <t>17-AFFIDAMENTO DIRETTO EX ART. 5 DELLA LEGGE 381/91</t>
         </is>
       </c>
       <c r="M164" t="inlineStr">
@@ -71958,7 +71958,7 @@
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>17-AFFIDAMENTO DIRETTO EX ART. 5 DELLA LEGGE N.381/91</t>
+          <t>17-AFFIDAMENTO DIRETTO EX ART. 5 DELLA LEGGE 381/91</t>
         </is>
       </c>
       <c r="M165" t="inlineStr">
@@ -72025,7 +72025,7 @@
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>17-AFFIDAMENTO DIRETTO EX ART. 5 DELLA LEGGE N.381/91</t>
+          <t>17-AFFIDAMENTO DIRETTO EX ART. 5 DELLA LEGGE 381/91</t>
         </is>
       </c>
       <c r="M166" t="inlineStr">
@@ -72226,7 +72226,7 @@
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>17-AFFIDAMENTO DIRETTO EX ART. 5 DELLA LEGGE N.381/91</t>
+          <t>17-AFFIDAMENTO DIRETTO EX ART. 5 DELLA LEGGE 381/91</t>
         </is>
       </c>
       <c r="M169" t="inlineStr">
@@ -72293,7 +72293,7 @@
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>17-AFFIDAMENTO DIRETTO EX ART. 5 DELLA LEGGE N.381/91</t>
+          <t>17-AFFIDAMENTO DIRETTO EX ART. 5 DELLA LEGGE 381/91</t>
         </is>
       </c>
       <c r="M170" t="inlineStr">
@@ -72494,7 +72494,7 @@
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>17-AFFIDAMENTO DIRETTO EX ART. 5 DELLA LEGGE N.381/91</t>
+          <t>17-AFFIDAMENTO DIRETTO EX ART. 5 DELLA LEGGE 381/91</t>
         </is>
       </c>
       <c r="M173" t="inlineStr">
@@ -72762,7 +72762,7 @@
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>17-AFFIDAMENTO DIRETTO EX ART. 5 DELLA LEGGE N.381/91</t>
+          <t>17-AFFIDAMENTO DIRETTO EX ART. 5 DELLA LEGGE 381/91</t>
         </is>
       </c>
       <c r="M177" t="inlineStr">
@@ -72824,7 +72824,7 @@
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>17-AFFIDAMENTO DIRETTO EX ART. 5 DELLA LEGGE N.381/91</t>
+          <t>17-AFFIDAMENTO DIRETTO EX ART. 5 DELLA LEGGE 381/91</t>
         </is>
       </c>
       <c r="M178" t="inlineStr">
@@ -73082,7 +73082,7 @@
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>17-AFFIDAMENTO DIRETTO EX ART. 5 DELLA LEGGE N.381/91</t>
+          <t>17-AFFIDAMENTO DIRETTO EX ART. 5 DELLA LEGGE 381/91</t>
         </is>
       </c>
       <c r="M182" t="inlineStr">
@@ -73211,7 +73211,7 @@
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>17-AFFIDAMENTO DIRETTO EX ART. 5 DELLA LEGGE N.381/91</t>
+          <t>17-AFFIDAMENTO DIRETTO EX ART. 5 DELLA LEGGE 381/91</t>
         </is>
       </c>
       <c r="M184" t="inlineStr">
@@ -73737,7 +73737,7 @@
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>17-AFFIDAMENTO DIRETTO EX ART. 5 DELLA LEGGE N.381/91</t>
+          <t>17-AFFIDAMENTO DIRETTO EX ART. 5 DELLA LEGGE 381/91</t>
         </is>
       </c>
       <c r="M192" t="inlineStr">
@@ -74335,7 +74335,7 @@
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>17-AFFIDAMENTO DIRETTO EX ART. 5 DELLA LEGGE N.381/91</t>
+          <t>17-AFFIDAMENTO DIRETTO EX ART. 5 DELLA LEGGE 381/91</t>
         </is>
       </c>
       <c r="M201" t="inlineStr">
@@ -74464,7 +74464,7 @@
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>17-AFFIDAMENTO DIRETTO EX ART. 5 DELLA LEGGE N.381/91</t>
+          <t>17-AFFIDAMENTO DIRETTO EX ART. 5 DELLA LEGGE 381/91</t>
         </is>
       </c>
       <c r="M203" t="inlineStr">
@@ -74794,7 +74794,7 @@
       </c>
       <c r="L208" t="inlineStr">
         <is>
-          <t>17-AFFIDAMENTO DIRETTO EX ART. 5 DELLA LEGGE N.381/91</t>
+          <t>17-AFFIDAMENTO DIRETTO EX ART. 5 DELLA LEGGE 381/91</t>
         </is>
       </c>
       <c r="M208" t="inlineStr">
@@ -74923,7 +74923,7 @@
       </c>
       <c r="L210" t="inlineStr">
         <is>
-          <t>17-AFFIDAMENTO DIRETTO EX ART. 5 DELLA LEGGE N.381/91</t>
+          <t>17-AFFIDAMENTO DIRETTO EX ART. 5 DELLA LEGGE 381/91</t>
         </is>
       </c>
       <c r="M210" t="inlineStr">
@@ -75578,7 +75578,7 @@
       </c>
       <c r="L220" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M220" t="inlineStr">
@@ -75908,7 +75908,7 @@
       </c>
       <c r="L225" t="inlineStr">
         <is>
-          <t>17-AFFIDAMENTO DIRETTO EX ART. 5 DELLA LEGGE N.381/91</t>
+          <t>17-AFFIDAMENTO DIRETTO EX ART. 5 DELLA LEGGE 381/91</t>
         </is>
       </c>
       <c r="M225" t="inlineStr">
@@ -76970,7 +76970,7 @@
       </c>
       <c r="L241" t="inlineStr">
         <is>
-          <t>17-AFFIDAMENTO DIRETTO EX ART. 5 DELLA LEGGE N.381/91</t>
+          <t>17-AFFIDAMENTO DIRETTO EX ART. 5 DELLA LEGGE 381/91</t>
         </is>
       </c>
       <c r="M241" t="inlineStr">
@@ -77228,7 +77228,7 @@
       </c>
       <c r="L245" t="inlineStr">
         <is>
-          <t>17-AFFIDAMENTO DIRETTO EX ART. 5 DELLA LEGGE N.381/91</t>
+          <t>17-AFFIDAMENTO DIRETTO EX ART. 5 DELLA LEGGE 381/91</t>
         </is>
       </c>
       <c r="M245" t="inlineStr">
@@ -77419,7 +77419,7 @@
       </c>
       <c r="L248" t="inlineStr">
         <is>
-          <t>17-AFFIDAMENTO DIRETTO EX ART. 5 DELLA LEGGE N.381/91</t>
+          <t>17-AFFIDAMENTO DIRETTO EX ART. 5 DELLA LEGGE 381/91</t>
         </is>
       </c>
       <c r="M248" t="inlineStr">
@@ -77543,7 +77543,7 @@
       </c>
       <c r="L250" t="inlineStr">
         <is>
-          <t>17-AFFIDAMENTO DIRETTO EX ART. 5 DELLA LEGGE N.381/91</t>
+          <t>17-AFFIDAMENTO DIRETTO EX ART. 5 DELLA LEGGE 381/91</t>
         </is>
       </c>
       <c r="M250" t="inlineStr">
@@ -77610,7 +77610,7 @@
       </c>
       <c r="L251" t="inlineStr">
         <is>
-          <t>17-AFFIDAMENTO DIRETTO EX ART. 5 DELLA LEGGE N.381/91</t>
+          <t>17-AFFIDAMENTO DIRETTO EX ART. 5 DELLA LEGGE 381/91</t>
         </is>
       </c>
       <c r="M251" t="inlineStr">
@@ -77677,7 +77677,7 @@
       </c>
       <c r="L252" t="inlineStr">
         <is>
-          <t>17-AFFIDAMENTO DIRETTO EX ART. 5 DELLA LEGGE N.381/91</t>
+          <t>17-AFFIDAMENTO DIRETTO EX ART. 5 DELLA LEGGE 381/91</t>
         </is>
       </c>
       <c r="M252" t="inlineStr">
@@ -77744,7 +77744,7 @@
       </c>
       <c r="L253" t="inlineStr">
         <is>
-          <t>17-AFFIDAMENTO DIRETTO EX ART. 5 DELLA LEGGE N.381/91</t>
+          <t>17-AFFIDAMENTO DIRETTO EX ART. 5 DELLA LEGGE 381/91</t>
         </is>
       </c>
       <c r="M253" t="inlineStr">
@@ -77806,7 +77806,7 @@
       </c>
       <c r="L254" t="inlineStr">
         <is>
-          <t>17-AFFIDAMENTO DIRETTO EX ART. 5 DELLA LEGGE N.381/91</t>
+          <t>17-AFFIDAMENTO DIRETTO EX ART. 5 DELLA LEGGE 381/91</t>
         </is>
       </c>
       <c r="M254" t="inlineStr">
@@ -77873,7 +77873,7 @@
       </c>
       <c r="L255" t="inlineStr">
         <is>
-          <t>03-PROCEDURA NEGOZIATA PREVIA PUBBLICAZIONE</t>
+          <t>03-PROCEDURA NEGOZIATA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M255" t="inlineStr">
@@ -77935,7 +77935,7 @@
       </c>
       <c r="L256" t="inlineStr">
         <is>
-          <t>17-AFFIDAMENTO DIRETTO EX ART. 5 DELLA LEGGE N.381/91</t>
+          <t>17-AFFIDAMENTO DIRETTO EX ART. 5 DELLA LEGGE 381/91</t>
         </is>
       </c>
       <c r="M256" t="inlineStr">
@@ -77997,7 +77997,7 @@
       </c>
       <c r="L257" t="inlineStr">
         <is>
-          <t>17-AFFIDAMENTO DIRETTO EX ART. 5 DELLA LEGGE N.381/91</t>
+          <t>17-AFFIDAMENTO DIRETTO EX ART. 5 DELLA LEGGE 381/91</t>
         </is>
       </c>
       <c r="M257" t="inlineStr">
@@ -78059,7 +78059,7 @@
       </c>
       <c r="L258" t="inlineStr">
         <is>
-          <t>17-AFFIDAMENTO DIRETTO EX ART. 5 DELLA LEGGE N.381/91</t>
+          <t>17-AFFIDAMENTO DIRETTO EX ART. 5 DELLA LEGGE 381/91</t>
         </is>
       </c>
     </row>
@@ -78116,7 +78116,7 @@
       </c>
       <c r="L259" t="inlineStr">
         <is>
-          <t>03-PROCEDURA NEGOZIATA PREVIA PUBBLICAZIONE</t>
+          <t>03-PROCEDURA NEGOZIATA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M259" t="inlineStr">
@@ -78178,7 +78178,7 @@
       </c>
       <c r="L260" t="inlineStr">
         <is>
-          <t>17-AFFIDAMENTO DIRETTO EX ART. 5 DELLA LEGGE N.381/91</t>
+          <t>17-AFFIDAMENTO DIRETTO EX ART. 5 DELLA LEGGE 381/91</t>
         </is>
       </c>
       <c r="M260" t="inlineStr">
@@ -78240,7 +78240,7 @@
       </c>
       <c r="L261" t="inlineStr">
         <is>
-          <t>17-AFFIDAMENTO DIRETTO EX ART. 5 DELLA LEGGE N.381/91</t>
+          <t>17-AFFIDAMENTO DIRETTO EX ART. 5 DELLA LEGGE 381/91</t>
         </is>
       </c>
     </row>

--- a/data/IT-CF-80025760820/ocds.xlsx
+++ b/data/IT-CF-80025760820/ocds.xlsx
@@ -61142,7 +61142,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -61209,7 +61209,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -61276,7 +61276,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -61343,7 +61343,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -61410,7 +61410,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -61477,7 +61477,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -61544,7 +61544,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -61611,7 +61611,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -61678,7 +61678,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -61745,7 +61745,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -61812,7 +61812,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -61879,7 +61879,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -61946,7 +61946,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -62013,7 +62013,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -62080,7 +62080,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -62147,7 +62147,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -62214,7 +62214,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -62281,7 +62281,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -62348,7 +62348,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -62415,7 +62415,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -62482,7 +62482,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -62549,7 +62549,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -62616,7 +62616,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -62683,7 +62683,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -62750,7 +62750,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -62817,7 +62817,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -62884,7 +62884,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -62951,7 +62951,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -63018,7 +63018,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -63085,7 +63085,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -63152,7 +63152,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -63219,7 +63219,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -63286,7 +63286,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -63348,7 +63348,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -63415,7 +63415,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -63482,7 +63482,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -63544,7 +63544,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -63611,7 +63611,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -63678,7 +63678,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -63745,7 +63745,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -63812,7 +63812,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -63879,7 +63879,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -63946,7 +63946,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -64008,7 +64008,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -64075,7 +64075,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -64142,7 +64142,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -64209,7 +64209,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -64276,7 +64276,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -64343,7 +64343,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -64410,7 +64410,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -64477,7 +64477,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -64544,7 +64544,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -64611,7 +64611,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -64678,7 +64678,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -64745,7 +64745,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -64812,7 +64812,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -64879,7 +64879,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -64946,7 +64946,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -65013,7 +65013,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -65080,7 +65080,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -65147,7 +65147,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -65214,7 +65214,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -65281,7 +65281,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -65348,7 +65348,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -65415,7 +65415,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -65482,7 +65482,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -65549,7 +65549,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -65611,7 +65611,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -65673,7 +65673,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -65740,7 +65740,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -65802,7 +65802,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -65869,7 +65869,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -65931,7 +65931,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -65998,7 +65998,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -66060,7 +66060,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -66122,7 +66122,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -66189,7 +66189,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -66256,7 +66256,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -66323,7 +66323,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -66390,7 +66390,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -66457,7 +66457,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -66524,7 +66524,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -66591,7 +66591,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -66658,7 +66658,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -66725,7 +66725,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -66792,7 +66792,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -66854,7 +66854,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -66921,7 +66921,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -66988,7 +66988,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -67055,7 +67055,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -67122,7 +67122,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -67189,7 +67189,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -67256,7 +67256,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -67323,7 +67323,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -67390,7 +67390,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -67457,7 +67457,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -67524,7 +67524,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -67591,7 +67591,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -67658,7 +67658,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -67725,7 +67725,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -67792,7 +67792,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -67859,7 +67859,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -67926,7 +67926,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -67993,7 +67993,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -68060,7 +68060,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -68127,7 +68127,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -68194,7 +68194,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -68261,7 +68261,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -68328,7 +68328,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -68395,7 +68395,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -68457,7 +68457,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -68524,7 +68524,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -68586,7 +68586,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -68648,7 +68648,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -68715,7 +68715,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -68782,7 +68782,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -68849,7 +68849,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -68916,7 +68916,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -68983,7 +68983,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -69050,7 +69050,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -69117,7 +69117,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -69184,7 +69184,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -69251,7 +69251,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -69313,7 +69313,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -69375,7 +69375,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -69442,7 +69442,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -69504,7 +69504,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -69566,7 +69566,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -69628,7 +69628,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -69695,7 +69695,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -69762,7 +69762,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -69829,7 +69829,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -69896,7 +69896,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -69963,7 +69963,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -70030,7 +70030,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -70097,7 +70097,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -70164,7 +70164,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -70231,7 +70231,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -70298,7 +70298,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -70365,7 +70365,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -70432,7 +70432,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -70499,7 +70499,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -70566,7 +70566,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -70633,7 +70633,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -70695,7 +70695,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -70757,7 +70757,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -70819,7 +70819,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -70886,7 +70886,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -70948,7 +70948,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -71010,7 +71010,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -71072,7 +71072,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -71139,7 +71139,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -71201,7 +71201,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -71268,7 +71268,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -71325,7 +71325,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -71387,7 +71387,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -71449,7 +71449,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -71516,7 +71516,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -71583,7 +71583,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -71650,7 +71650,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -71717,7 +71717,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -71784,7 +71784,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -71851,7 +71851,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -71918,7 +71918,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -71985,7 +71985,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -72052,7 +72052,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -72119,7 +72119,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -72186,7 +72186,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -72253,7 +72253,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -72320,7 +72320,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -72387,7 +72387,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -72454,7 +72454,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -72521,7 +72521,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -72588,7 +72588,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -72655,7 +72655,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -72722,7 +72722,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -72784,7 +72784,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -72846,7 +72846,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -72908,7 +72908,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -72975,7 +72975,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -73042,7 +73042,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -73104,7 +73104,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -73171,7 +73171,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -73233,7 +73233,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -73300,7 +73300,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -73367,7 +73367,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -73434,7 +73434,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -73501,7 +73501,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -73568,7 +73568,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -73630,7 +73630,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -73697,7 +73697,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -73759,7 +73759,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -73826,7 +73826,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -73893,7 +73893,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -73960,7 +73960,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -74027,7 +74027,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -74094,7 +74094,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -74161,7 +74161,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -74228,7 +74228,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -74295,7 +74295,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -74357,7 +74357,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -74424,7 +74424,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -74486,7 +74486,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -74553,7 +74553,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -74620,7 +74620,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -74687,7 +74687,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -74754,7 +74754,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -74816,7 +74816,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -74883,7 +74883,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -74950,7 +74950,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -75017,7 +75017,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -75079,7 +75079,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -75146,7 +75146,7 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -75208,7 +75208,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -75275,7 +75275,7 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -75342,7 +75342,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -75404,7 +75404,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -75471,7 +75471,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -75538,7 +75538,7 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -75600,7 +75600,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -75667,7 +75667,7 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -75734,7 +75734,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -75801,7 +75801,7 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -75868,7 +75868,7 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -75935,7 +75935,7 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -76002,7 +76002,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
@@ -76069,7 +76069,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -76136,7 +76136,7 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -76203,7 +76203,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -76270,7 +76270,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -76337,7 +76337,7 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
@@ -76399,7 +76399,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -76466,7 +76466,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -76528,7 +76528,7 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
@@ -76595,7 +76595,7 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
@@ -76662,7 +76662,7 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
@@ -76729,7 +76729,7 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
@@ -76796,7 +76796,7 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
@@ -76863,7 +76863,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -76930,7 +76930,7 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
@@ -76997,7 +76997,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
@@ -77059,7 +77059,7 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
@@ -77126,7 +77126,7 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
@@ -77188,7 +77188,7 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
@@ -77250,7 +77250,7 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
@@ -77317,7 +77317,7 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
@@ -77379,7 +77379,7 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
@@ -77441,7 +77441,7 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
@@ -77503,7 +77503,7 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
@@ -77570,7 +77570,7 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
@@ -77637,7 +77637,7 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
@@ -77704,7 +77704,7 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
@@ -77766,7 +77766,7 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
@@ -77833,7 +77833,7 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
@@ -77895,7 +77895,7 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
@@ -77957,7 +77957,7 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
@@ -78019,7 +78019,7 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
@@ -78076,7 +78076,7 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
@@ -78138,7 +78138,7 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
@@ -78200,7 +78200,7 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
